--- a/src/Input_Files/country_parameters.xlsx
+++ b/src/Input_Files/country_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\src\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE1DFD-4428-460E-9F8E-41C68FCED064}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355C6F0-7D6A-4066-ABBE-79B2CE5B722E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{60DA84D4-36C8-4008-A07F-6877966D96BB}"/>
   </bookViews>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="182">
   <si>
     <t>RGB</t>
   </si>
@@ -56,171 +60,15 @@
     <t>despotic_monarchy</t>
   </si>
   <si>
-    <t>atlantean</t>
-  </si>
-  <si>
-    <t>poseidon</t>
-  </si>
-  <si>
-    <t>(19, 62, 90)</t>
-  </si>
-  <si>
-    <t>(54, 66, 120)</t>
-  </si>
-  <si>
-    <t>Aeterna</t>
-  </si>
-  <si>
-    <t>Tertis</t>
-  </si>
-  <si>
-    <t>AT1</t>
-  </si>
-  <si>
-    <t>TR1</t>
-  </si>
-  <si>
-    <t>(188, 49, 49)</t>
-  </si>
-  <si>
-    <t>(216, 26, 26)</t>
-  </si>
-  <si>
-    <t>(116, 10, 10)</t>
-  </si>
-  <si>
-    <t>(232, 68, 68)</t>
-  </si>
-  <si>
-    <t>(136, 28, 39)</t>
-  </si>
-  <si>
-    <t>(97, 12, 20)</t>
-  </si>
-  <si>
-    <t>(216, 67, 82)</t>
-  </si>
-  <si>
-    <t>(35, 76, 25)</t>
-  </si>
-  <si>
-    <t>Arcania</t>
-  </si>
-  <si>
-    <t>Saurelia</t>
-  </si>
-  <si>
-    <t>Titantis</t>
-  </si>
-  <si>
-    <t>Titania</t>
-  </si>
-  <si>
-    <t>Robaria</t>
-  </si>
-  <si>
-    <t>Gelia</t>
-  </si>
-  <si>
-    <t>Babylia</t>
-  </si>
-  <si>
-    <t>Tyrenia</t>
-  </si>
-  <si>
-    <t>TY1</t>
-  </si>
-  <si>
-    <t>BB1</t>
-  </si>
-  <si>
-    <t>GL1</t>
-  </si>
-  <si>
-    <t>RB1</t>
-  </si>
-  <si>
-    <t>TT1</t>
-  </si>
-  <si>
-    <t>TT2</t>
-  </si>
-  <si>
-    <t>SR1</t>
-  </si>
-  <si>
-    <t>AC1</t>
-  </si>
-  <si>
     <t>ADJ</t>
   </si>
   <si>
-    <t>Aeternal</t>
-  </si>
-  <si>
-    <t>Tertian</t>
-  </si>
-  <si>
-    <t>Tyrenian</t>
-  </si>
-  <si>
-    <t>Babylian</t>
-  </si>
-  <si>
-    <t>Gelian</t>
-  </si>
-  <si>
-    <t>Robarian</t>
-  </si>
-  <si>
-    <t>Titanian</t>
-  </si>
-  <si>
-    <t>Titantish</t>
-  </si>
-  <si>
-    <t>Saurelian</t>
-  </si>
-  <si>
-    <t>Arcanian</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
     <t>Capital RGB</t>
   </si>
   <si>
-    <t>(5, 25, 63)</t>
-  </si>
-  <si>
-    <t>(206, 233, 96)</t>
-  </si>
-  <si>
-    <t>(174, 92, 27)</t>
-  </si>
-  <si>
-    <t>(77, 6, 48)</t>
-  </si>
-  <si>
-    <t>(66, 53, 1)</t>
-  </si>
-  <si>
-    <t>(247, 80, 80)</t>
-  </si>
-  <si>
-    <t>(229, 182, 66)</t>
-  </si>
-  <si>
-    <t>(64, 153, 9)</t>
-  </si>
-  <si>
-    <t>(132, 156, 1)</t>
-  </si>
-  <si>
-    <t>(211, 151, 86)</t>
-  </si>
-  <si>
     <t>Roma</t>
   </si>
   <si>
@@ -233,18 +81,9 @@
     <t>ROM</t>
   </si>
   <si>
-    <t>(169, 48, 48)</t>
-  </si>
-  <si>
     <t>roman</t>
   </si>
   <si>
-    <t>hellenic</t>
-  </si>
-  <si>
-    <t>(0, 0, 0)</t>
-  </si>
-  <si>
     <t>Athens</t>
   </si>
   <si>
@@ -257,20 +96,506 @@
     <t>SPA</t>
   </si>
   <si>
-    <t>(104, 138, 143)</t>
-  </si>
-  <si>
-    <t>(213, 136, 84)</t>
+    <t>(139, 16, 13)</t>
+  </si>
+  <si>
+    <t>(19, 139, 244)</t>
+  </si>
+  <si>
+    <t>(150, 70, 78)</t>
+  </si>
+  <si>
+    <t>(61, 64, 20)</t>
+  </si>
+  <si>
+    <t>Sabinia</t>
+  </si>
+  <si>
+    <t>Sabinian</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>(252, 212, 75)</t>
+  </si>
+  <si>
+    <t>(16, 91, 13)</t>
+  </si>
+  <si>
+    <t>Umbria</t>
+  </si>
+  <si>
+    <t>Umbrian</t>
+  </si>
+  <si>
+    <t>UMB</t>
+  </si>
+  <si>
+    <t>(100, 40, 0)</t>
+  </si>
+  <si>
+    <t>(208, 203, 75)</t>
+  </si>
+  <si>
+    <t>Picentia</t>
+  </si>
+  <si>
+    <t>Picenti</t>
+  </si>
+  <si>
+    <t>PIE</t>
+  </si>
+  <si>
+    <t>(90, 150, 200)</t>
+  </si>
+  <si>
+    <t>(97, 215, 65)</t>
+  </si>
+  <si>
+    <t>Nuceria</t>
+  </si>
+  <si>
+    <t>Nucerian</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>(240, 240, 240)</t>
+  </si>
+  <si>
+    <t>(58, 200, 34)</t>
+  </si>
+  <si>
+    <t>Samnium</t>
+  </si>
+  <si>
+    <t>Samnian</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>(58, 164, 111)</t>
+  </si>
+  <si>
+    <t>(231, 81, 27)</t>
+  </si>
+  <si>
+    <t>Frentania</t>
+  </si>
+  <si>
+    <t>Frentanian</t>
+  </si>
+  <si>
+    <t>FRE</t>
+  </si>
+  <si>
+    <t>(190, 200, 60)</t>
+  </si>
+  <si>
+    <t>(145, 116, 0)</t>
+  </si>
+  <si>
+    <t>Pelignia</t>
+  </si>
+  <si>
+    <t>Pelignian</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>(90, 15, 40)</t>
+  </si>
+  <si>
+    <t>(199, 122, 59)</t>
+  </si>
+  <si>
+    <t>Marsia</t>
+  </si>
+  <si>
+    <t>Marsian</t>
+  </si>
+  <si>
+    <t>MRS</t>
+  </si>
+  <si>
+    <t>(38, 73, 205)</t>
+  </si>
+  <si>
+    <t>(192, 166, 64)</t>
+  </si>
+  <si>
+    <t>(86, 50, 26)</t>
+  </si>
+  <si>
+    <t>(255, 151, 52)</t>
+  </si>
+  <si>
+    <t>Sipontum</t>
+  </si>
+  <si>
+    <t>Spartan</t>
+  </si>
+  <si>
+    <t>Sipontan</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
+    <t>(50, 60, 100)</t>
+  </si>
+  <si>
+    <t>(110, 137, 55)</t>
+  </si>
+  <si>
+    <t>Apulia</t>
+  </si>
+  <si>
+    <t>APU</t>
+  </si>
+  <si>
+    <t>Apulian</t>
+  </si>
+  <si>
+    <t>(210, 115, 60)</t>
+  </si>
+  <si>
+    <t>(61, 165, 45)</t>
+  </si>
+  <si>
+    <t>Lucania</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>Lucanian</t>
+  </si>
+  <si>
+    <t>(45, 99, 142)</t>
+  </si>
+  <si>
+    <t>(242, 179, 34)</t>
+  </si>
+  <si>
+    <t>Elea</t>
+  </si>
+  <si>
+    <t>Elean</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>(255, 131, 6)</t>
+  </si>
+  <si>
+    <t>(223, 219, 67)</t>
+  </si>
+  <si>
+    <t>Messapia</t>
+  </si>
+  <si>
+    <t>Messapian</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>(13, 180, 101)</t>
+  </si>
+  <si>
+    <t>(188, 250, 8)</t>
+  </si>
+  <si>
+    <t>Tarentum</t>
+  </si>
+  <si>
+    <t>Tarentine</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>(100, 40, 180)</t>
+  </si>
+  <si>
+    <t>(221, 177, 2)</t>
+  </si>
+  <si>
+    <t>Herakleia</t>
+  </si>
+  <si>
+    <t>Herakleian</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>(125, 45, 93)</t>
+  </si>
+  <si>
+    <t>(189, 237, 35)</t>
+  </si>
+  <si>
+    <t>Croton</t>
+  </si>
+  <si>
+    <t>Crotan</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>(10, 130, 80)</t>
+  </si>
+  <si>
+    <t>(111, 190, 71)</t>
+  </si>
+  <si>
+    <t>Bruttia</t>
+  </si>
+  <si>
+    <t>Bruttian</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
+    <t>(11, 40, 180)</t>
+  </si>
+  <si>
+    <t>(186, 198, 45)</t>
+  </si>
+  <si>
+    <t>Etruria</t>
+  </si>
+  <si>
+    <t>Etrurian</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>(48, 30, 180)</t>
+  </si>
+  <si>
+    <t>(157, 93, 75)</t>
+  </si>
+  <si>
+    <t>Friniatia</t>
+  </si>
+  <si>
+    <t>Friniatian</t>
+  </si>
+  <si>
+    <t>FNT</t>
+  </si>
+  <si>
+    <t>(30, 125, 130)</t>
+  </si>
+  <si>
+    <t>(108, 93, 25)</t>
+  </si>
+  <si>
+    <t>Senones</t>
+  </si>
+  <si>
+    <t>Senosian</t>
+  </si>
+  <si>
+    <t>SNI</t>
+  </si>
+  <si>
+    <t>(13, 210, 40)</t>
+  </si>
+  <si>
+    <t>(135, 208, 18)</t>
+  </si>
+  <si>
+    <t>Ancona</t>
+  </si>
+  <si>
+    <t>Anconan</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>(190, 70, 8)</t>
+  </si>
+  <si>
+    <t>(208, 57, 34)</t>
+  </si>
+  <si>
+    <t>Hipponion</t>
+  </si>
+  <si>
+    <t>Hipponian</t>
+  </si>
+  <si>
+    <t>HPO</t>
+  </si>
+  <si>
+    <t>(160, 212, 76)</t>
+  </si>
+  <si>
+    <t>(197, 62, 53)</t>
+  </si>
+  <si>
+    <t>Rhegium</t>
+  </si>
+  <si>
+    <t>Rhegian</t>
+  </si>
+  <si>
+    <t>RHG</t>
+  </si>
+  <si>
+    <t>(60, 12, 6)</t>
+  </si>
+  <si>
+    <t>(107, 229, 62)</t>
+  </si>
+  <si>
+    <t>Locri</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>(170, 125, 255)</t>
+  </si>
+  <si>
+    <t>(201, 134, 38)</t>
+  </si>
+  <si>
+    <t>Thuria</t>
+  </si>
+  <si>
+    <t>Thurian</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>(70, 225, 69)</t>
+  </si>
+  <si>
+    <t>(129, 230, 67)</t>
+  </si>
+  <si>
+    <t>Syracusae</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>Syracusi</t>
+  </si>
+  <si>
+    <t>(240, 180, 80)</t>
+  </si>
+  <si>
+    <t>(70, 93, 47)</t>
+  </si>
+  <si>
+    <t>(74, 174, 85)</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Carthaginian</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>(112, 89, 6)</t>
+  </si>
+  <si>
+    <t>Siculia</t>
+  </si>
+  <si>
+    <t>Siculian</t>
+  </si>
+  <si>
+    <t>SCU</t>
+  </si>
+  <si>
+    <t>(181, 103, 88)</t>
+  </si>
+  <si>
+    <t>(55, 174, 19)</t>
+  </si>
+  <si>
+    <t>Calactea</t>
+  </si>
+  <si>
+    <t>Calactean</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>(120, 13, 13)</t>
+  </si>
+  <si>
+    <t>(109, 93, 62)</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Egyptian</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>(143, 141, 128)</t>
+  </si>
+  <si>
+    <t>(180, 204, 20)</t>
+  </si>
+  <si>
+    <t>roman_pantheon</t>
+  </si>
+  <si>
+    <t>samnite</t>
+  </si>
+  <si>
+    <t>umbrian</t>
+  </si>
+  <si>
+    <t>macedonian</t>
+  </si>
+  <si>
+    <t>carthaginian</t>
+  </si>
+  <si>
+    <t>carthaginian_pantheon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,19 +937,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E80E9-260A-4467-B2CD-36B8E63C4567}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -657,391 +983,391 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I10">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1049,34 +1375,675 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="I14">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25">
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28">
+        <v>90</v>
+      </c>
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29">
+        <v>91</v>
+      </c>
+      <c r="J29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31">
+        <v>93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32">
+        <v>94</v>
+      </c>
+      <c r="J32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33">
+        <v>95</v>
+      </c>
+      <c r="J33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34">
+        <v>96</v>
+      </c>
+      <c r="J34" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>